--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命a</t>
+    <t>生命C</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命C</t>
+    <t>生命D</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命b</t>
+    <t>生命F</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命C</t>
+    <t>生命G</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命D</t>
+    <t>生命H</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命G</t>
+    <t>生命I</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/DB_Affix.xlsx
+++ b/DB_Affix.xlsx
@@ -356,7 +356,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生命I</t>
+    <t>生命 excel1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
